--- a/interview/School recruitment.xlsx
+++ b/interview/School recruitment.xlsx
@@ -1,48 +1,459 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+  <si>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>公司地点</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>投递时间</t>
+  </si>
+  <si>
+    <t>投递状态</t>
+  </si>
+  <si>
+    <t>投递岗位</t>
+  </si>
+  <si>
+    <t>火币集团</t>
+  </si>
+  <si>
+    <t>北京或深圳</t>
+  </si>
+  <si>
+    <t>11月底</t>
+  </si>
+  <si>
+    <t>申请</t>
+  </si>
+  <si>
+    <t>测试工程师</t>
+  </si>
+  <si>
+    <t>网宿科技</t>
+  </si>
+  <si>
+    <t>厦门</t>
+  </si>
+  <si>
+    <t>测试开发工程师</t>
+  </si>
+  <si>
+    <t>立白集团</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>IT产品助理</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,21 +461,322 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -355,50 +1067,144 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3">
+        <v>44132</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44134</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44132</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44141</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44132</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/interview/School recruitment.xlsx
+++ b/interview/School recruitment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="20460" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>公司名称</t>
   </si>
@@ -36,6 +36,12 @@
     <t>投递岗位</t>
   </si>
   <si>
+    <t>渠道</t>
+  </si>
+  <si>
+    <t>薪资</t>
+  </si>
+  <si>
     <t>火币集团</t>
   </si>
   <si>
@@ -51,6 +57,9 @@
     <t>测试工程师</t>
   </si>
   <si>
+    <t>牛客网</t>
+  </si>
+  <si>
     <t>网宿科技</t>
   </si>
   <si>
@@ -67,6 +76,57 @@
   </si>
   <si>
     <t>IT产品助理</t>
+  </si>
+  <si>
+    <t>广州猎奇互娱网络有限公司</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>大学生就业</t>
+  </si>
+  <si>
+    <t>深圳思特奇信息技术有限公司</t>
+  </si>
+  <si>
+    <t>广州市天河区珠江新城海安路19号东田大厦1201室</t>
+  </si>
+  <si>
+    <t>8K-12K</t>
+  </si>
+  <si>
+    <t>广东映客互娱网络信息有限公司</t>
+  </si>
+  <si>
+    <t>海珠区 阅江西路218号广州国际媒体港西港11楼</t>
+  </si>
+  <si>
+    <t>广州数控设备有限公司</t>
+  </si>
+  <si>
+    <t>广州市 黄埔区</t>
+  </si>
+  <si>
+    <t>2021-01-11 2</t>
+  </si>
+  <si>
+    <t>软件测试</t>
+  </si>
+  <si>
+    <t>广州市保伦电子有限公司（itc）2</t>
+  </si>
+  <si>
+    <t>广州市番禺区</t>
+  </si>
+  <si>
+    <t>学校推荐</t>
+  </si>
+  <si>
+    <t>未知</t>
   </si>
 </sst>
 </file>
@@ -74,12 +134,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,14 +157,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,89 +219,23 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,6 +247,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -223,25 +293,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,37 +321,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,139 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,11 +515,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,227 +612,168 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1073,99 +1132,243 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="3" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
     <col min="5" max="5" width="14.625" customWidth="1"/>
     <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5">
         <v>44132</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6">
+        <v>44134</v>
+      </c>
+      <c r="D3" s="5">
+        <v>44132</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6">
+        <v>44141</v>
+      </c>
+      <c r="D4" s="5">
+        <v>44132</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5">
+        <v>44137</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" ht="54" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5">
+        <v>44174</v>
+      </c>
+      <c r="D6" s="5">
+        <v>44137</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4">
-        <v>44134</v>
-      </c>
-      <c r="D3" s="3">
-        <v>44132</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4">
-        <v>44141</v>
-      </c>
-      <c r="D4" s="3">
-        <v>44132</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
+    <row r="7" ht="40.5" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D7" s="5">
+        <v>44137</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="5">
+        <v>44137</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5">
+        <v>44137</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/interview/School recruitment.xlsx
+++ b/interview/School recruitment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>公司名称</t>
   </si>
@@ -127,6 +127,27 @@
   </si>
   <si>
     <t>未知</t>
+  </si>
+  <si>
+    <t>得力集团</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>实习僧</t>
+  </si>
+  <si>
+    <t>6000-8000</t>
+  </si>
+  <si>
+    <t>腾讯</t>
+  </si>
+  <si>
+    <t>补录</t>
+  </si>
+  <si>
+    <t>北京海致星图科技有限公司修改</t>
   </si>
 </sst>
 </file>
@@ -134,10 +155,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -156,8 +177,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,29 +216,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,15 +253,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,46 +291,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,150 +342,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -472,36 +523,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,6 +533,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -539,36 +575,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -576,15 +582,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,6 +601,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -620,10 +641,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,137 +653,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,6 +803,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1132,10 +1156,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1368,6 +1392,84 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5">
+        <v>44144</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="5">
+        <v>44144</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" ht="27" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="7">
+        <v>44226</v>
+      </c>
+      <c r="D12" s="5">
+        <v>44144</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s">
         <v>36</v>
       </c>
     </row>

--- a/interview/School recruitment.xlsx
+++ b/interview/School recruitment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="55">
   <si>
     <t>公司名称</t>
   </si>
@@ -30,7 +30,7 @@
     <t>投递时间</t>
   </si>
   <si>
-    <t>投递状态</t>
+    <t>状态</t>
   </si>
   <si>
     <t>投递岗位</t>
@@ -148,6 +148,39 @@
   </si>
   <si>
     <t>北京海致星图科技有限公司修改</t>
+  </si>
+  <si>
+    <t>同盾科技</t>
+  </si>
+  <si>
+    <t>杭州</t>
+  </si>
+  <si>
+    <t>建信金融科技</t>
+  </si>
+  <si>
+    <t>测试与质控</t>
+  </si>
+  <si>
+    <t>智云健康</t>
+  </si>
+  <si>
+    <t>已笔试</t>
+  </si>
+  <si>
+    <t>微众银行</t>
+  </si>
+  <si>
+    <t>系统测试</t>
+  </si>
+  <si>
+    <t>喜马拉雅</t>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+  </si>
+  <si>
+    <t>深圳，武汉</t>
   </si>
 </sst>
 </file>
@@ -156,11 +189,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +210,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -186,14 +293,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,118 +354,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -342,19 +382,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,31 +508,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,37 +550,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,85 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,6 +573,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,6 +611,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,15 +665,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -585,54 +673,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -641,10 +681,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,141 +693,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -803,6 +846,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1156,16 +1208,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
     <col min="5" max="5" width="14.625" customWidth="1"/>
@@ -1174,42 +1226,42 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.25" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>44132</v>
       </c>
       <c r="E2" t="s">
@@ -1223,16 +1275,16 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>44134</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>44132</v>
       </c>
       <c r="E3" t="s">
@@ -1246,16 +1298,16 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>44141</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>44132</v>
       </c>
       <c r="E4" t="s">
@@ -1269,16 +1321,16 @@
       </c>
     </row>
     <row r="5" ht="27" spans="1:7">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>44137</v>
       </c>
       <c r="E5" t="s">
@@ -1292,16 +1344,16 @@
       </c>
     </row>
     <row r="6" ht="54" spans="1:8">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>44174</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>44137</v>
       </c>
       <c r="E6" t="s">
@@ -1317,43 +1369,43 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="40.5" spans="1:8">
-      <c r="A7" s="2" t="s">
+    <row r="7" s="2" customFormat="1" ht="40.5" spans="1:8">
+      <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="9">
         <v>44196</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="9">
         <v>44137</v>
       </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>44137</v>
       </c>
       <c r="E8" t="s">
@@ -1370,16 +1422,16 @@
       </c>
     </row>
     <row r="9" ht="27" spans="1:8">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <v>44137</v>
       </c>
       <c r="E9" t="s">
@@ -1396,16 +1448,16 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="6">
         <v>44144</v>
       </c>
       <c r="E10" t="s">
@@ -1422,16 +1474,16 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="6">
         <v>44144</v>
       </c>
       <c r="E11" t="s">
@@ -1448,16 +1500,16 @@
       </c>
     </row>
     <row r="12" ht="27" spans="1:8">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="11">
         <v>44226</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="6">
         <v>44144</v>
       </c>
       <c r="E12" t="s">
@@ -1470,6 +1522,188 @@
         <v>39</v>
       </c>
       <c r="H12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="6">
+        <v>44147</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="6">
+        <v>44147</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="6">
+        <v>44147</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="6">
+        <v>44148</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3">
+        <v>4399</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="6">
+        <v>44148</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="6">
+        <v>44153</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="6">
+        <v>44153</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
         <v>36</v>
       </c>
     </row>
